--- a/contratos/contratos-12-2015.xlsx
+++ b/contratos/contratos-12-2015.xlsx
@@ -718,7 +718,7 @@
     <t>ZALAZAR DIONISIO RUBEN DARIO</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>FORCLAZ CECILIO ISMAEL. SUCESION</t>
@@ -727,7 +727,7 @@
     <t>LEGUIZAMON ALCIDES Y GALVARINI EDUARDO S.H.</t>
   </si>
   <si>
-    <t>ALBIZZATTI, PABLO MARTIN Y FULINI, SERGIO RUBEN</t>
+    <t>ALBIZZATTI. PABLO MARTIN Y FULINI. SERGIO RUBEN</t>
   </si>
   <si>
     <t>CASA SPAIS S.A.</t>
@@ -895,7 +895,7 @@
     <t>GENESIS</t>
   </si>
   <si>
-    <t>MERCANZINI, GASTON ARIEL</t>
+    <t>MERCANZINI. GASTON ARIEL</t>
   </si>
   <si>
     <t>DIOGENES</t>
@@ -1048,394 +1048,394 @@
     <t>176</t>
   </si>
   <si>
-    <t>59.800,00</t>
-  </si>
-  <si>
-    <t>29.835,00</t>
-  </si>
-  <si>
-    <t>218.000,00</t>
-  </si>
-  <si>
-    <t>116,00</t>
-  </si>
-  <si>
-    <t>12.800,00</t>
-  </si>
-  <si>
-    <t>100,00</t>
-  </si>
-  <si>
-    <t>462,00</t>
-  </si>
-  <si>
-    <t>4.010,01</t>
-  </si>
-  <si>
-    <t>27.240,00</t>
-  </si>
-  <si>
-    <t>622.959,90</t>
-  </si>
-  <si>
-    <t>17.920,34</t>
-  </si>
-  <si>
-    <t>2.475,00</t>
-  </si>
-  <si>
-    <t>11.800,00</t>
-  </si>
-  <si>
-    <t>2.724,60</t>
-  </si>
-  <si>
-    <t>22.432,71</t>
-  </si>
-  <si>
-    <t>2.307,00</t>
-  </si>
-  <si>
-    <t>17.706,98</t>
-  </si>
-  <si>
-    <t>6.070,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>29.872,00</t>
-  </si>
-  <si>
-    <t>6.500,00</t>
-  </si>
-  <si>
-    <t>1.011,72</t>
-  </si>
-  <si>
-    <t>16.594,05</t>
-  </si>
-  <si>
-    <t>1.339,07</t>
-  </si>
-  <si>
-    <t>3.715,53</t>
-  </si>
-  <si>
-    <t>12.799,00</t>
-  </si>
-  <si>
-    <t>2.875,00</t>
-  </si>
-  <si>
-    <t>5.903,02</t>
-  </si>
-  <si>
-    <t>750,01</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>23.207,50</t>
-  </si>
-  <si>
-    <t>1.225,00</t>
-  </si>
-  <si>
-    <t>15.092,00</t>
-  </si>
-  <si>
-    <t>437,92</t>
-  </si>
-  <si>
-    <t>97,00</t>
-  </si>
-  <si>
-    <t>126.000,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>439,02</t>
-  </si>
-  <si>
-    <t>15.947,00</t>
-  </si>
-  <si>
-    <t>2.222,00</t>
-  </si>
-  <si>
-    <t>5.796,00</t>
-  </si>
-  <si>
-    <t>13.894,70</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>4.420,00</t>
-  </si>
-  <si>
-    <t>22.000,00</t>
-  </si>
-  <si>
-    <t>55.350,00</t>
-  </si>
-  <si>
-    <t>1.187,00</t>
-  </si>
-  <si>
-    <t>4.060,00</t>
-  </si>
-  <si>
-    <t>469,70</t>
-  </si>
-  <si>
-    <t>391.178,31</t>
-  </si>
-  <si>
-    <t>53.261,49</t>
-  </si>
-  <si>
-    <t>20.000,00</t>
-  </si>
-  <si>
-    <t>11,37</t>
-  </si>
-  <si>
-    <t>68,56</t>
-  </si>
-  <si>
-    <t>2.950,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>5.670,00</t>
-  </si>
-  <si>
-    <t>4.018,40</t>
-  </si>
-  <si>
-    <t>419,00</t>
-  </si>
-  <si>
-    <t>8.770,00</t>
-  </si>
-  <si>
-    <t>361,53</t>
-  </si>
-  <si>
-    <t>512,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>4.874,00</t>
-  </si>
-  <si>
-    <t>16.852,50</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>12.000,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>5.570,00</t>
-  </si>
-  <si>
-    <t>9.000,00</t>
-  </si>
-  <si>
-    <t>212.100,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>6.100,00</t>
-  </si>
-  <si>
-    <t>4.734,00</t>
-  </si>
-  <si>
-    <t>1.205,00</t>
-  </si>
-  <si>
-    <t>937,20</t>
-  </si>
-  <si>
-    <t>219.350,00</t>
-  </si>
-  <si>
-    <t>37.500,00</t>
-  </si>
-  <si>
-    <t>11.268,59</t>
-  </si>
-  <si>
-    <t>2.300,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>72.587,90</t>
-  </si>
-  <si>
-    <t>3.146,00</t>
-  </si>
-  <si>
-    <t>1.800,00</t>
-  </si>
-  <si>
-    <t>1.657,50</t>
-  </si>
-  <si>
-    <t>1.656,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>6.000,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>620,00</t>
-  </si>
-  <si>
-    <t>4.665,29</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>8.352,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>5.850,00</t>
-  </si>
-  <si>
-    <t>10.800,00</t>
-  </si>
-  <si>
-    <t>668,41</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>3.012,00</t>
-  </si>
-  <si>
-    <t>1.340,00</t>
-  </si>
-  <si>
-    <t>4.880,00</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>9.629,00</t>
-  </si>
-  <si>
-    <t>52,00</t>
-  </si>
-  <si>
-    <t>351,00</t>
-  </si>
-  <si>
-    <t>6.505,00</t>
-  </si>
-  <si>
-    <t>3.949,50</t>
-  </si>
-  <si>
-    <t>540,00</t>
-  </si>
-  <si>
-    <t>4.679,48</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>1.504.177,80</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>138.780,00</t>
-  </si>
-  <si>
-    <t>164.169,00</t>
-  </si>
-  <si>
-    <t>130.000,00</t>
-  </si>
-  <si>
-    <t>81.000,00</t>
-  </si>
-  <si>
-    <t>106.870,00</t>
-  </si>
-  <si>
-    <t>168.782,26</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>17.500,00</t>
-  </si>
-  <si>
-    <t>1.174.465,23</t>
-  </si>
-  <si>
-    <t>11.980,00</t>
-  </si>
-  <si>
-    <t>27.830,00</t>
-  </si>
-  <si>
-    <t>527.753,08</t>
-  </si>
-  <si>
-    <t>938.415,43</t>
-  </si>
-  <si>
-    <t>70.500,00</t>
+    <t>59800.00</t>
+  </si>
+  <si>
+    <t>29835.00</t>
+  </si>
+  <si>
+    <t>218000.00</t>
+  </si>
+  <si>
+    <t>116.00</t>
+  </si>
+  <si>
+    <t>12800.00</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>462.00</t>
+  </si>
+  <si>
+    <t>4010.01</t>
+  </si>
+  <si>
+    <t>27240.00</t>
+  </si>
+  <si>
+    <t>622959.90</t>
+  </si>
+  <si>
+    <t>17920.34</t>
+  </si>
+  <si>
+    <t>2475.00</t>
+  </si>
+  <si>
+    <t>11800.00</t>
+  </si>
+  <si>
+    <t>2724.60</t>
+  </si>
+  <si>
+    <t>22432.71</t>
+  </si>
+  <si>
+    <t>2307.00</t>
+  </si>
+  <si>
+    <t>17706.98</t>
+  </si>
+  <si>
+    <t>6070.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>29872.00</t>
+  </si>
+  <si>
+    <t>6500.00</t>
+  </si>
+  <si>
+    <t>1011.72</t>
+  </si>
+  <si>
+    <t>16594.05</t>
+  </si>
+  <si>
+    <t>1339.07</t>
+  </si>
+  <si>
+    <t>3715.53</t>
+  </si>
+  <si>
+    <t>12799.00</t>
+  </si>
+  <si>
+    <t>2875.00</t>
+  </si>
+  <si>
+    <t>5903.02</t>
+  </si>
+  <si>
+    <t>750.01</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>23207.50</t>
+  </si>
+  <si>
+    <t>1225.00</t>
+  </si>
+  <si>
+    <t>15092.00</t>
+  </si>
+  <si>
+    <t>437.92</t>
+  </si>
+  <si>
+    <t>97.00</t>
+  </si>
+  <si>
+    <t>126000.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>439.02</t>
+  </si>
+  <si>
+    <t>15947.00</t>
+  </si>
+  <si>
+    <t>2222.00</t>
+  </si>
+  <si>
+    <t>5796.00</t>
+  </si>
+  <si>
+    <t>13894.70</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>4420.00</t>
+  </si>
+  <si>
+    <t>22000.00</t>
+  </si>
+  <si>
+    <t>55350.00</t>
+  </si>
+  <si>
+    <t>1187.00</t>
+  </si>
+  <si>
+    <t>4060.00</t>
+  </si>
+  <si>
+    <t>469.70</t>
+  </si>
+  <si>
+    <t>391178.31</t>
+  </si>
+  <si>
+    <t>53261.49</t>
+  </si>
+  <si>
+    <t>20000.00</t>
+  </si>
+  <si>
+    <t>11.37</t>
+  </si>
+  <si>
+    <t>68.56</t>
+  </si>
+  <si>
+    <t>2950.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>5670.00</t>
+  </si>
+  <si>
+    <t>4018.40</t>
+  </si>
+  <si>
+    <t>419.00</t>
+  </si>
+  <si>
+    <t>8770.00</t>
+  </si>
+  <si>
+    <t>361.53</t>
+  </si>
+  <si>
+    <t>512.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>4874.00</t>
+  </si>
+  <si>
+    <t>16852.50</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>12000.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>5570.00</t>
+  </si>
+  <si>
+    <t>9000.00</t>
+  </si>
+  <si>
+    <t>212100.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>6100.00</t>
+  </si>
+  <si>
+    <t>4734.00</t>
+  </si>
+  <si>
+    <t>1205.00</t>
+  </si>
+  <si>
+    <t>937.20</t>
+  </si>
+  <si>
+    <t>219350.00</t>
+  </si>
+  <si>
+    <t>37500.00</t>
+  </si>
+  <si>
+    <t>11268.59</t>
+  </si>
+  <si>
+    <t>2300.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>72587.90</t>
+  </si>
+  <si>
+    <t>3146.00</t>
+  </si>
+  <si>
+    <t>1800.00</t>
+  </si>
+  <si>
+    <t>1657.50</t>
+  </si>
+  <si>
+    <t>1656.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>6000.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>620.00</t>
+  </si>
+  <si>
+    <t>4665.29</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>8352.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>5850.00</t>
+  </si>
+  <si>
+    <t>10800.00</t>
+  </si>
+  <si>
+    <t>668.41</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>3012.00</t>
+  </si>
+  <si>
+    <t>1340.00</t>
+  </si>
+  <si>
+    <t>4880.00</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>9629.00</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>351.00</t>
+  </si>
+  <si>
+    <t>6505.00</t>
+  </si>
+  <si>
+    <t>3949.50</t>
+  </si>
+  <si>
+    <t>540.00</t>
+  </si>
+  <si>
+    <t>4679.48</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>1504177.80</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>138780.00</t>
+  </si>
+  <si>
+    <t>164169.00</t>
+  </si>
+  <si>
+    <t>130000.00</t>
+  </si>
+  <si>
+    <t>81000.00</t>
+  </si>
+  <si>
+    <t>106870.00</t>
+  </si>
+  <si>
+    <t>168782.26</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>17500.00</t>
+  </si>
+  <si>
+    <t>1174465.23</t>
+  </si>
+  <si>
+    <t>11980.00</t>
+  </si>
+  <si>
+    <t>27830.00</t>
+  </si>
+  <si>
+    <t>527753.08</t>
+  </si>
+  <si>
+    <t>938415.43</t>
+  </si>
+  <si>
+    <t>70500.00</t>
   </si>
 </sst>
 </file>
